--- a/excel/游戏数据表.xlsx
+++ b/excel/游戏数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProject\LobbyTask\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DAB36D-64AA-46C6-8CC6-0FC1FF63C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145D004-1977-4725-BFF0-13430163F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DayTasksCfg" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -294,6 +294,51 @@
   </si>
   <si>
     <t>物品id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型
+1=动物
+2=水果
+3=香火
+4=祈福
+5=花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画资源id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +481,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +772,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,7 +899,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -888,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -896,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -904,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -912,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11">
-        <v>5</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -920,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11">
-        <v>6</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -928,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11">
-        <v>7</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B97AA69-C186-4DB5-ADA3-ACAF98D2DB9C}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,9 +1007,11 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -962,8 +1021,14 @@
       <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -973,8 +1038,14 @@
       <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -984,208 +1055,307 @@
       <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1002</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1004</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1005</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1006</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2001</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2002</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2003</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2004</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2005</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2006</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
       <c r="B16" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3001</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3002</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3003</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3004</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3005</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3006</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4001</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4002</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4003</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4004</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5001</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>24</v>
       </c>
       <c r="B27" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5002</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="11">
-        <v>25</v>
+        <v>5003</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1198,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A48262-6740-437A-9AFB-EC56C5B320BC}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="11">
         <v>10</v>
@@ -1258,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="11">
         <v>11</v>
@@ -1269,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="11">
         <v>12</v>
@@ -1280,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="11">
         <v>13</v>
@@ -1291,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="C8" s="11">
         <v>14</v>
@@ -1302,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11">
-        <v>6</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="11">
         <v>15</v>
@@ -1313,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11">
-        <v>7</v>
+        <v>2002</v>
       </c>
       <c r="C10" s="11">
         <v>16</v>
@@ -1324,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11">
-        <v>8</v>
+        <v>2003</v>
       </c>
       <c r="C11" s="11">
         <v>17</v>
@@ -1335,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="11">
-        <v>9</v>
+        <v>2004</v>
       </c>
       <c r="C12" s="11">
         <v>18</v>
@@ -1346,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11">
-        <v>10</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="11">
         <v>19</v>
@@ -1573,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA0CE7A-65F8-4AEF-B0F1-BCBB4A99BBE2}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/excel/游戏数据表.xlsx
+++ b/excel/游戏数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProject\LobbyTask\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\LobbyTask\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145D004-1977-4725-BFF0-13430163F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873E6A2-9524-483C-92F7-874558CF045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DayTasksCfg" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,37 +443,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -482,14 +476,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -775,114 +766,114 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3"/>
-    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="8.90625" style="3"/>
+    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>5</v>
       </c>
     </row>
@@ -899,92 +890,92 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2002</v>
       </c>
     </row>
@@ -1002,356 +993,356 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1001</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1002</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1003</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1004</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1005</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1006</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2001</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2002</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2003</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2004</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2005</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2006</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>3001</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>3002</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>3003</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>3004</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>3005</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>3006</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>4001</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>4002</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>4003</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>4004</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>5001</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>5002</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>5003</v>
       </c>
       <c r="D28">
@@ -1368,157 +1359,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A48262-6740-437A-9AFB-EC56C5B320BC}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1001</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1002</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1003</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1004</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1005</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2002</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2003</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2004</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2005</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>19</v>
       </c>
     </row>
@@ -1536,199 +1527,199 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="1" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>17</v>
       </c>
     </row>
@@ -1743,174 +1734,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA0CE7A-65F8-4AEF-B0F1-BCBB4A99BBE2}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="B4" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="B5" s="10">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="B6" s="10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="B7" s="10">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="B8" s="10">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="B9" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="B10" s="10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="B11" s="10">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="B12" s="10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="B13" s="10">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+      <c r="B14" s="10">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="B15" s="10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+      <c r="B16" s="10">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="B17" s="10">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="B18" s="10">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="B19" s="10">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="11">
-        <v>17</v>
+      <c r="B20" s="10">
+        <v>3005</v>
       </c>
     </row>
   </sheetData>

--- a/excel/游戏数据表.xlsx
+++ b/excel/游戏数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\LobbyTask\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosProject\LobbyTask\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873E6A2-9524-483C-92F7-874558CF045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E54EB7-B272-40B6-9F8B-D71905FD9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DayTasksCfg" sheetId="1" r:id="rId1"/>
@@ -766,18 +766,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="3"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -817,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -893,13 +893,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -915,7 +915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -971,7 +971,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -993,16 +993,16 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -1363,14 +1363,14 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1527,15 +1527,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="1" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1732,19 +1732,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA0CE7A-65F8-4AEF-B0F1-BCBB4A99BBE2}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -1896,16 +1896,81 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" s="10">
         <v>3005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>